--- a/biology/Médecine/Ostéoblastome/Ostéoblastome.xlsx
+++ b/biology/Médecine/Ostéoblastome/Ostéoblastome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ost%C3%A9oblastome</t>
+          <t>Ostéoblastome</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ostéoblastome est une néoplasie bénigne primitive du tissu osseux due à la prolifération des ostéoblastes.
 Ses manifestations cliniques et anatomopathologiques sont similaires à l'ostéome ostéoïde.
-Certains considèrent que les deux tumeurs sont des variantes de la même maladie[1], l'ostéoblastome étant considéré comme un ostéome ostéoïde géant (entre 2 et 6 cm)[2], cependant l'existence d'ostéoblastomes agressifs rend cette relation moins évidente.
+Certains considèrent que les deux tumeurs sont des variantes de la même maladie, l'ostéoblastome étant considéré comme un ostéome ostéoïde géant (entre 2 et 6 cm), cependant l'existence d'ostéoblastomes agressifs rend cette relation moins évidente.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ost%C3%A9oblastome</t>
+          <t>Ostéoblastome</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Signes cliniques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les patients atteints d'ostéoblastome présentent généralement :
 Des douleurs résistantes aux salicylates (aspirine et apparentés) durant plusieurs mois  souvent moins intense que la douleur associée à l'ostéome ostéoïde et sans intensification nocturne.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ost%C3%A9oblastome</t>
+          <t>Ostéoblastome</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,13 +560,50 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La cause de l'ostéoblastome est inconnue.
 Histologiquement, les ostéoblastomes sont similaires aux ostéomes ostéoïdes, produisant de l'os au milieu du tissu conjonctif fibro-vasculaire. L'ostéoblastome peut atteindre plus de 2,0 cm de diamètre alors que les ostéomes ostéoïdes ne dépassent pas 2 cm.
 Ce type de  tumeur est généralement considérée comme bénigne, mais une variante agressive controversée a été décrite dans la littérature, avec des caractéristiques histologiques similaires à celles des tumeurs malignes telles qu'un ostéosarcome .[réf. nécessaire]
-Localisation anatomique
-Il se présente généralement dans la colonne vertébrale ou les os longs[3],[4].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ostéoblastome</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ost%C3%A9oblastome</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Physiopathologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Localisation anatomique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se présente généralement dans la colonne vertébrale ou les os longs,.
 Environ 40 % de tous les ostéoblastomes sont localisés dans la colonne vertébrale. Les tumeurs touchent généralement les éléments postérieurs, et 17% des ostéoblastomes rachidiens se trouvent dans le sacrum.
 Les os tubulaires longs sont un autre site d'atteinte fréquent, avec une prépondérance des membres inférieurs. L'ostéoblastome des os tubulaires longs est souvent diaphysaire, et moins est localisé dans la métaphyse. L'atteinte épiphysaire est extrêmement rare.
 Bien que d'autres sites soient rarement touchés, plusieurs os de l'abdomen et des extrémités ont été rapportés comme sites de tumeurs d'ostéoblastome.[réf. nécessaire]
@@ -560,31 +611,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ost%C3%A9oblastome</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ostéoblastome</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ost%C3%A9oblastome</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Lors du diagnostic d'ostéoblastome, le bilan radiologique préliminaire doit consister en
 une radiographie du site de la douleur du patient.
@@ -597,47 +650,13 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ost%C3%A9oblastome</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ost%C3%A9oblastome</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Traitement</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traitement chirurgical
-L'objectif du traitement est l'exérèse chirurgicale complète de la lésion[5]. Le type d'excision dépend de la localisation de la tumeur et du stade d'évolution. Elle peut aller d'une excision intralésionnelle extensive à une résection large.
-Traitement médical
-Lorsque la différenciation avec un ostéosarcome est difficile, un traitement par chimiothérapie ou radiothérapie peut être envisagé. Ces traitements sont sujets à controverse du fait de l'apparition possible de sarcome post-irradiation.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ost%C3%A9oblastome</t>
+          <t>Ostéoblastome</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,10 +671,86 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Traitement chirurgical</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'objectif du traitement est l'exérèse chirurgicale complète de la lésion. Le type d'excision dépend de la localisation de la tumeur et du stade d'évolution. Elle peut aller d'une excision intralésionnelle extensive à une résection large.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ostéoblastome</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ost%C3%A9oblastome</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Traitement médical</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorsque la différenciation avec un ostéosarcome est difficile, un traitement par chimiothérapie ou radiothérapie peut être envisagé. Ces traitements sont sujets à controverse du fait de l'apparition possible de sarcome post-irradiation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ostéoblastome</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ost%C3%A9oblastome</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Aux États-Unis, les ostéoblastomes ne représentent que 0,5 à 2 % de toutes les tumeurs osseuses primitives et seulement 14 % des tumeurs osseuses bénignes, ce qui en fait une forme relativement rare de tumeur osseuse.[réf. nécessaire]
 L'ostéoblastome affecte plus d'hommes que de femmes, avec un ratio de 2 à 3:1 respectivement.
